--- a/data/Auctioning_sheet.xlsx
+++ b/data/Auctioning_sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Emission Caps" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="41">
   <si>
     <t>scenario</t>
   </si>
@@ -64,12 +64,6 @@
   </si>
   <si>
     <t>region</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2020</t>
   </si>
   <si>
     <t>2025</t>
@@ -257,8 +251,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -299,6 +291,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,19 +575,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A13"/>
+      <selection activeCell="K2" sqref="K2:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="13" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,607 +595,529 @@
         <v>1</v>
       </c>
       <c r="C1" s="4">
-        <v>2015</v>
+        <v>2025</v>
       </c>
       <c r="D1" s="4">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E1" s="4">
-        <v>2025</v>
+        <v>2035</v>
       </c>
       <c r="F1" s="4">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="G1" s="4">
-        <v>2035</v>
+        <v>2045</v>
       </c>
       <c r="H1" s="4">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="I1" s="4">
-        <v>2045</v>
+        <v>2055</v>
       </c>
       <c r="J1" s="4">
-        <v>2050</v>
+        <v>2060</v>
       </c>
       <c r="K1" s="4">
-        <v>2055</v>
-      </c>
-      <c r="L1" s="4">
-        <v>2060</v>
-      </c>
-      <c r="M1" s="4">
         <v>2065</v>
       </c>
-      <c r="N1" s="1">
+      <c r="L1" s="1">
         <v>2070</v>
       </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5">
-        <v>70.2436328</v>
-      </c>
-      <c r="D2" s="6">
-        <v>81.607645700000006</v>
-      </c>
-      <c r="E2" s="6">
-        <v>86.272416699999994</v>
-      </c>
-      <c r="F2" s="6">
-        <v>86.128612434999994</v>
-      </c>
-      <c r="G2" s="6">
-        <v>96.574560413</v>
-      </c>
-      <c r="H2" s="6">
-        <v>107.02050839099999</v>
-      </c>
-      <c r="I2" s="6">
-        <v>89.1854236591671</v>
-      </c>
-      <c r="J2" s="6">
-        <v>71.350338927333723</v>
-      </c>
-      <c r="K2" s="6">
-        <v>53.515254195500347</v>
-      </c>
-      <c r="L2" s="6">
-        <v>35.680169463666971</v>
-      </c>
-      <c r="M2" s="6">
-        <v>17.845084731833595</v>
-      </c>
-      <c r="N2">
+      <c r="C2" s="23">
+        <v>85.079412999999988</v>
+      </c>
+      <c r="D2" s="23">
+        <v>86.35082704460001</v>
+      </c>
+      <c r="E2" s="23">
+        <v>91.601632516500004</v>
+      </c>
+      <c r="F2" s="23">
+        <v>104.722482537</v>
+      </c>
+      <c r="G2" s="23">
+        <v>87.270402114166245</v>
+      </c>
+      <c r="H2" s="23">
+        <v>69.81832169133304</v>
+      </c>
+      <c r="I2" s="23">
+        <v>52.366241268499834</v>
+      </c>
+      <c r="J2" s="23">
+        <v>34.914160845666629</v>
+      </c>
+      <c r="K2" s="23">
+        <v>17.462080422833424</v>
+      </c>
+      <c r="L2" s="23">
         <v>1.0000000000218279E-2</v>
       </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
-        <v>44.395605499999995</v>
-      </c>
-      <c r="D3" s="6">
-        <v>48.374612999999997</v>
-      </c>
-      <c r="E3" s="6">
-        <v>67.748386989999986</v>
-      </c>
-      <c r="F3" s="6">
-        <v>85.92277170749999</v>
-      </c>
-      <c r="G3" s="6">
-        <v>107.30352503775001</v>
-      </c>
-      <c r="H3" s="6">
-        <v>128.68427836800004</v>
-      </c>
-      <c r="I3" s="6">
-        <v>120</v>
-      </c>
-      <c r="J3" s="6">
-        <v>111</v>
-      </c>
-      <c r="K3" s="6">
-        <v>102</v>
-      </c>
-      <c r="L3" s="6">
-        <v>93</v>
-      </c>
-      <c r="M3" s="6">
-        <v>84</v>
-      </c>
-      <c r="N3">
-        <v>75</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C3" s="23">
+        <v>66.909072949999995</v>
+      </c>
+      <c r="D3" s="23">
+        <v>86.691901820199973</v>
+      </c>
+      <c r="E3" s="23">
+        <v>106.80372282960001</v>
+      </c>
+      <c r="F3" s="23">
+        <v>128.05688740590003</v>
+      </c>
+      <c r="G3" s="23">
+        <v>115.04740617158404</v>
+      </c>
+      <c r="H3" s="23">
+        <v>102.03792493726723</v>
+      </c>
+      <c r="I3" s="23">
+        <v>89.028443702950426</v>
+      </c>
+      <c r="J3" s="23">
+        <v>76.018962468633617</v>
+      </c>
+      <c r="K3" s="23">
+        <v>63.009481234317718</v>
+      </c>
+      <c r="L3" s="23">
+        <v>50.000000000000909</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
-        <v>10.60209</v>
-      </c>
-      <c r="D4" s="6">
-        <v>10.764451000000001</v>
-      </c>
-      <c r="E4" s="6">
-        <v>11.547584570000001</v>
-      </c>
-      <c r="F4" s="6">
-        <v>11.494174706499999</v>
-      </c>
-      <c r="G4" s="6">
-        <v>10.416426646249999</v>
-      </c>
-      <c r="H4" s="6">
-        <v>9.3386785860000003</v>
-      </c>
-      <c r="I4" s="6">
-        <v>7.7838988216667531</v>
-      </c>
-      <c r="J4" s="6">
-        <v>6.2291190573333779</v>
-      </c>
-      <c r="K4" s="6">
-        <v>4.6743392930000027</v>
-      </c>
-      <c r="L4" s="6">
-        <v>3.1195595286667412</v>
-      </c>
-      <c r="M4" s="6">
-        <v>1.5647797643333661</v>
-      </c>
-      <c r="N4">
+      <c r="C4" s="23">
+        <v>11.53992949</v>
+      </c>
+      <c r="D4" s="23">
+        <v>11.694998592599999</v>
+      </c>
+      <c r="E4" s="23">
+        <v>10.7512551885</v>
+      </c>
+      <c r="F4" s="23">
+        <v>9.2969599590000005</v>
+      </c>
+      <c r="G4" s="23">
+        <v>7.7491332991666013</v>
+      </c>
+      <c r="H4" s="23">
+        <v>6.2013066393333247</v>
+      </c>
+      <c r="I4" s="23">
+        <v>4.6534799795000481</v>
+      </c>
+      <c r="J4" s="23">
+        <v>3.1056533196666578</v>
+      </c>
+      <c r="K4" s="23">
+        <v>1.5578266598333812</v>
+      </c>
+      <c r="L4" s="23">
         <v>9.9999999999909051E-3</v>
       </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
-        <v>307.62032119999992</v>
-      </c>
-      <c r="D5" s="6">
-        <v>319.84641245587608</v>
-      </c>
-      <c r="E5" s="6">
-        <v>412.04414515147079</v>
-      </c>
-      <c r="F5" s="6">
-        <v>469.82025181602046</v>
-      </c>
-      <c r="G5" s="6">
-        <v>516.14628451391695</v>
-      </c>
-      <c r="H5" s="6">
-        <v>562.47231721181333</v>
-      </c>
-      <c r="I5" s="6">
-        <v>468.72859767651244</v>
-      </c>
-      <c r="J5" s="6">
-        <v>374.98487814120745</v>
-      </c>
-      <c r="K5" s="6">
-        <v>281.24115860590973</v>
-      </c>
-      <c r="L5" s="6">
-        <v>187.49743907060474</v>
-      </c>
-      <c r="M5" s="6">
-        <v>93.753719535299751</v>
-      </c>
-      <c r="N5">
-        <v>1.0000000002037268E-2</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C5" s="23">
+        <v>346.62758098258939</v>
+      </c>
+      <c r="D5" s="23">
+        <v>402.26287311761956</v>
+      </c>
+      <c r="E5" s="23">
+        <v>441.15268853185574</v>
+      </c>
+      <c r="F5" s="23">
+        <v>471.49766688090097</v>
+      </c>
+      <c r="G5" s="23">
+        <v>392.91638906741355</v>
+      </c>
+      <c r="H5" s="23">
+        <v>314.33511125393125</v>
+      </c>
+      <c r="I5" s="23">
+        <v>235.75383344044894</v>
+      </c>
+      <c r="J5" s="23">
+        <v>157.172555626963</v>
+      </c>
+      <c r="K5" s="23">
+        <v>78.591277813480701</v>
+      </c>
+      <c r="L5" s="23">
+        <v>9.9999999983992893E-3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5">
-        <v>70.2436328</v>
-      </c>
-      <c r="D6" s="6">
-        <v>81.607645700000006</v>
-      </c>
-      <c r="E6" s="6">
-        <v>86.272416699999994</v>
-      </c>
-      <c r="F6" s="6">
-        <v>86.128612434999994</v>
-      </c>
-      <c r="G6" s="6">
-        <v>100.73646907264998</v>
-      </c>
-      <c r="H6" s="6">
-        <v>115.34432571029998</v>
-      </c>
-      <c r="I6" s="6">
-        <v>96.121938091916491</v>
-      </c>
-      <c r="J6" s="6">
-        <v>76.899550473533054</v>
-      </c>
-      <c r="K6" s="6">
-        <v>57.677162855149618</v>
-      </c>
-      <c r="L6" s="6">
-        <v>38.454775236766181</v>
-      </c>
-      <c r="M6" s="6">
-        <v>19.232387618382745</v>
-      </c>
-      <c r="N6">
-        <v>1.0000000000218279E-2</v>
-      </c>
-      <c r="O6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C6" s="23">
+        <v>85.079412999999988</v>
+      </c>
+      <c r="D6" s="23">
+        <v>88.131256468200007</v>
+      </c>
+      <c r="E6" s="23">
+        <v>93.571560097499997</v>
+      </c>
+      <c r="F6" s="23">
+        <v>109.60953172206</v>
+      </c>
+      <c r="G6" s="23">
+        <v>91.342943101717538</v>
+      </c>
+      <c r="H6" s="23">
+        <v>73.076354481374437</v>
+      </c>
+      <c r="I6" s="23">
+        <v>54.809765861030428</v>
+      </c>
+      <c r="J6" s="23">
+        <v>36.543177240687328</v>
+      </c>
+      <c r="K6" s="23">
+        <v>18.276588620344228</v>
+      </c>
+      <c r="L6" s="23">
+        <v>1.0000000001127773E-2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5">
-        <v>44.395605499999995</v>
-      </c>
-      <c r="D7" s="6">
-        <v>48.374612999999997</v>
-      </c>
-      <c r="E7" s="6">
-        <v>67.748386989999986</v>
-      </c>
-      <c r="F7" s="6">
-        <v>89.54057262149999</v>
-      </c>
-      <c r="G7" s="6">
-        <v>114.11681409795001</v>
-      </c>
-      <c r="H7" s="6">
-        <v>138.69305557440003</v>
-      </c>
-      <c r="I7" s="6">
-        <v>128.33333333333303</v>
-      </c>
-      <c r="J7" s="6">
-        <v>117.66666666666697</v>
-      </c>
-      <c r="K7" s="6">
-        <v>107</v>
-      </c>
-      <c r="L7" s="6">
-        <v>96.33333333333303</v>
-      </c>
-      <c r="M7" s="6">
-        <v>85.66666666666697</v>
-      </c>
-      <c r="N7">
-        <v>75</v>
-      </c>
-      <c r="O7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C7" s="23">
+        <v>66.909072949999995</v>
+      </c>
+      <c r="D7" s="23">
+        <v>88.479363713399977</v>
+      </c>
+      <c r="E7" s="23">
+        <v>109.10057708399999</v>
+      </c>
+      <c r="F7" s="23">
+        <v>134.03287548484201</v>
+      </c>
+      <c r="G7" s="23">
+        <v>120.02739623736852</v>
+      </c>
+      <c r="H7" s="23">
+        <v>106.02191698989463</v>
+      </c>
+      <c r="I7" s="23">
+        <v>92.016437742420749</v>
+      </c>
+      <c r="J7" s="23">
+        <v>78.010958494946863</v>
+      </c>
+      <c r="K7" s="23">
+        <v>64.005479247473886</v>
+      </c>
+      <c r="L7" s="23">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5">
-        <v>10.60209</v>
-      </c>
-      <c r="D8" s="6">
-        <v>10.764451000000001</v>
-      </c>
-      <c r="E8" s="6">
-        <v>11.547584570000001</v>
-      </c>
-      <c r="F8" s="6">
-        <v>11.373183393799998</v>
-      </c>
-      <c r="G8" s="6">
-        <v>10.252167894499998</v>
-      </c>
-      <c r="H8" s="6">
-        <v>9.1311523951999991</v>
-      </c>
-      <c r="I8" s="6">
-        <v>7.6109603293332384</v>
-      </c>
-      <c r="J8" s="6">
-        <v>6.0907682634666571</v>
-      </c>
-      <c r="K8" s="6">
-        <v>4.5705761975999621</v>
-      </c>
-      <c r="L8" s="6">
-        <v>3.0503841317332672</v>
-      </c>
-      <c r="M8" s="6">
-        <v>1.5301920658665722</v>
-      </c>
-      <c r="N8">
+      <c r="C8" s="23">
+        <v>11.53992949</v>
+      </c>
+      <c r="D8" s="23">
+        <v>11.5744315968</v>
+      </c>
+      <c r="E8" s="23">
+        <v>10.635650294000001</v>
+      </c>
+      <c r="F8" s="23">
+        <v>9.0903608487999996</v>
+      </c>
+      <c r="G8" s="23">
+        <v>7.5769673739999917</v>
+      </c>
+      <c r="H8" s="23">
+        <v>6.063573899200037</v>
+      </c>
+      <c r="I8" s="23">
+        <v>4.5501804243999686</v>
+      </c>
+      <c r="J8" s="23">
+        <v>3.0367869496000139</v>
+      </c>
+      <c r="K8" s="23">
+        <v>1.5233934747999456</v>
+      </c>
+      <c r="L8" s="23">
         <v>9.9999999999909051E-3</v>
       </c>
-      <c r="O8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5">
-        <v>307.62032119999992</v>
-      </c>
-      <c r="D9" s="6">
-        <v>319.84641245587608</v>
-      </c>
-      <c r="E9" s="6">
-        <v>412.04414515147079</v>
-      </c>
-      <c r="F9" s="6">
-        <v>464.87477548111497</v>
-      </c>
-      <c r="G9" s="6">
-        <v>504.29900772626729</v>
-      </c>
-      <c r="H9" s="6">
-        <v>543.72323997141962</v>
-      </c>
-      <c r="I9" s="6">
-        <v>453.10436664285226</v>
-      </c>
-      <c r="J9" s="6">
-        <v>362.48549331428512</v>
-      </c>
-      <c r="K9" s="6">
-        <v>271.86661998571071</v>
-      </c>
-      <c r="L9" s="6">
-        <v>181.24774665714358</v>
-      </c>
-      <c r="M9" s="6">
-        <v>90.628873328576447</v>
-      </c>
-      <c r="N9">
-        <v>1.0000000002037268E-2</v>
-      </c>
-      <c r="O9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C9" s="23">
+        <v>346.62758098258939</v>
+      </c>
+      <c r="D9" s="23">
+        <v>398.11583318857197</v>
+      </c>
+      <c r="E9" s="23">
+        <v>436.40911123581429</v>
+      </c>
+      <c r="F9" s="23">
+        <v>461.01994095021428</v>
+      </c>
+      <c r="G9" s="23">
+        <v>384.1849507918414</v>
+      </c>
+      <c r="H9" s="23">
+        <v>307.34996063347353</v>
+      </c>
+      <c r="I9" s="23">
+        <v>230.51497047510566</v>
+      </c>
+      <c r="J9" s="23">
+        <v>153.67998031673415</v>
+      </c>
+      <c r="K9" s="23">
+        <v>76.844990158366272</v>
+      </c>
+      <c r="L9" s="23">
+        <v>9.9999999983992893E-3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="5">
-        <v>70.2436328</v>
-      </c>
-      <c r="D10" s="6">
-        <v>81.607645700000006</v>
-      </c>
-      <c r="E10" s="6">
-        <v>86.272416699999994</v>
-      </c>
-      <c r="F10" s="6">
-        <v>85.221995461999995</v>
-      </c>
-      <c r="G10" s="6">
-        <v>93.148460026750001</v>
-      </c>
-      <c r="H10" s="6">
-        <v>101.07492459149999</v>
-      </c>
-      <c r="I10" s="6">
-        <v>84.230770492916236</v>
-      </c>
-      <c r="J10" s="6">
-        <v>67.386616394333032</v>
-      </c>
-      <c r="K10" s="6">
-        <v>50.542462295749829</v>
-      </c>
-      <c r="L10" s="6">
-        <v>33.698308197165716</v>
-      </c>
-      <c r="M10" s="6">
-        <v>16.854154098582512</v>
-      </c>
-      <c r="N10">
+      <c r="C10" s="23">
+        <v>85.079412999999988</v>
+      </c>
+      <c r="D10" s="23">
+        <v>85.460612332799997</v>
+      </c>
+      <c r="E10" s="23">
+        <v>87.169295459250009</v>
+      </c>
+      <c r="F10" s="23">
+        <v>97.740983701200008</v>
+      </c>
+      <c r="G10" s="23">
+        <v>81.452486417667387</v>
+      </c>
+      <c r="H10" s="23">
+        <v>65.163989134133772</v>
+      </c>
+      <c r="I10" s="23">
+        <v>48.875491850600156</v>
+      </c>
+      <c r="J10" s="23">
+        <v>32.58699456706745</v>
+      </c>
+      <c r="K10" s="23">
+        <v>16.298497283533834</v>
+      </c>
+      <c r="L10" s="23">
         <v>1.0000000000218279E-2</v>
       </c>
-      <c r="O10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="5">
-        <v>44.395605499999995</v>
-      </c>
-      <c r="D11" s="6">
-        <v>48.374612999999997</v>
-      </c>
-      <c r="E11" s="6">
-        <v>67.748386989999986</v>
-      </c>
-      <c r="F11" s="6">
-        <v>75.973819193999987</v>
-      </c>
-      <c r="G11" s="6">
-        <v>92.320271574600014</v>
-      </c>
-      <c r="H11" s="6">
-        <v>108.66672395520003</v>
-      </c>
-      <c r="I11" s="6">
-        <v>103.33333333333348</v>
-      </c>
-      <c r="J11" s="6">
-        <v>97.666666666666515</v>
-      </c>
-      <c r="K11" s="6">
-        <v>92</v>
-      </c>
-      <c r="L11" s="6">
-        <v>86.333333333333485</v>
-      </c>
-      <c r="M11" s="6">
-        <v>80.666666666666515</v>
-      </c>
-      <c r="N11">
-        <v>75</v>
-      </c>
-      <c r="O11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C11" s="23">
+        <v>66.909072949999995</v>
+      </c>
+      <c r="D11" s="23">
+        <v>83.116978033799981</v>
+      </c>
+      <c r="E11" s="23">
+        <v>101.6358007572</v>
+      </c>
+      <c r="F11" s="23">
+        <v>119.51976157884002</v>
+      </c>
+      <c r="G11" s="23">
+        <v>107.93313464903349</v>
+      </c>
+      <c r="H11" s="23">
+        <v>96.346507719226793</v>
+      </c>
+      <c r="I11" s="23">
+        <v>84.759880789420095</v>
+      </c>
+      <c r="J11" s="23">
+        <v>73.173253859613396</v>
+      </c>
+      <c r="K11" s="23">
+        <v>61.586626929806698</v>
+      </c>
+      <c r="L11" s="23">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5">
-        <v>10.60209</v>
-      </c>
-      <c r="D12" s="6">
-        <v>10.764451000000001</v>
-      </c>
-      <c r="E12" s="6">
-        <v>11.547584570000001</v>
-      </c>
-      <c r="F12" s="6">
-        <v>11.736157331899999</v>
-      </c>
-      <c r="G12" s="6">
-        <v>10.848707245149999</v>
-      </c>
-      <c r="H12" s="6">
-        <v>9.9612571583999987</v>
-      </c>
-      <c r="I12" s="6">
-        <v>8.3027142986667286</v>
-      </c>
-      <c r="J12" s="6">
-        <v>6.6441714389334265</v>
-      </c>
-      <c r="K12" s="6">
-        <v>4.9856285792000108</v>
-      </c>
-      <c r="L12" s="6">
-        <v>3.3270857194667087</v>
-      </c>
-      <c r="M12" s="6">
-        <v>1.6685428597334067</v>
-      </c>
-      <c r="N12">
-        <v>9.9999999998772182E-3</v>
-      </c>
-      <c r="O12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C12" s="23">
+        <v>11.53992949</v>
+      </c>
+      <c r="D12" s="23">
+        <v>11.8155655884</v>
+      </c>
+      <c r="E12" s="23">
+        <v>10.982464977499999</v>
+      </c>
+      <c r="F12" s="23">
+        <v>9.6068586243000009</v>
+      </c>
+      <c r="G12" s="23">
+        <v>8.0073821869166295</v>
+      </c>
+      <c r="H12" s="23">
+        <v>6.40790574953337</v>
+      </c>
+      <c r="I12" s="23">
+        <v>4.8084293121499968</v>
+      </c>
+      <c r="J12" s="23">
+        <v>3.2089528747666236</v>
+      </c>
+      <c r="K12" s="23">
+        <v>1.6094764373833641</v>
+      </c>
+      <c r="L12" s="23">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="5">
-        <v>307.62032119999992</v>
-      </c>
-      <c r="D13" s="6">
-        <v>319.84641245587608</v>
-      </c>
-      <c r="E13" s="6">
-        <v>412.04414515147079</v>
-      </c>
-      <c r="F13" s="6">
-        <v>479.71120448583144</v>
-      </c>
-      <c r="G13" s="6">
-        <v>533.59114567575159</v>
-      </c>
-      <c r="H13" s="6">
-        <v>587.47108686567174</v>
-      </c>
-      <c r="I13" s="6">
-        <v>489.5609057213951</v>
-      </c>
-      <c r="J13" s="6">
-        <v>391.65072457712085</v>
-      </c>
-      <c r="K13" s="6">
-        <v>293.74054343283933</v>
-      </c>
-      <c r="L13" s="6">
-        <v>195.83036228855781</v>
-      </c>
-      <c r="M13" s="6">
-        <v>97.920181144283561</v>
-      </c>
-      <c r="N13">
+      <c r="C13" s="23">
+        <v>346.62758098258939</v>
+      </c>
+      <c r="D13" s="23">
+        <v>406.40991304666721</v>
+      </c>
+      <c r="E13" s="23">
+        <v>450.63984312393865</v>
+      </c>
+      <c r="F13" s="23">
+        <v>487.214255776931</v>
+      </c>
+      <c r="G13" s="23">
+        <v>406.01354648078268</v>
+      </c>
+      <c r="H13" s="23">
+        <v>324.8128371846251</v>
+      </c>
+      <c r="I13" s="23">
+        <v>243.61212788846751</v>
+      </c>
+      <c r="J13" s="23">
+        <v>162.4114185923172</v>
+      </c>
+      <c r="K13" s="23">
+        <v>81.210709296159621</v>
+      </c>
+      <c r="L13" s="23">
         <v>1.0000000002037268E-2</v>
       </c>
-      <c r="O13" t="s">
-        <v>27</v>
+      <c r="M13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1213,7 +1131,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1229,43 +1147,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>42</v>
+      <c r="G1" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11">
-        <v>17.845084731833595</v>
-      </c>
-      <c r="D2" s="12">
-        <v>46.549678151672019</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="C2" s="9">
+        <v>17.462080422833424</v>
+      </c>
+      <c r="D2" s="10">
+        <v>31.386904779723</v>
+      </c>
+      <c r="E2" s="11">
         <f>C2-D2</f>
-        <v>-28.704593419838424</v>
-      </c>
-      <c r="F2" s="10"/>
+        <v>-13.924824356889577</v>
+      </c>
+      <c r="F2" s="8"/>
       <c r="G2">
         <v>2065</v>
       </c>
@@ -1274,20 +1192,20 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11">
-        <v>84</v>
-      </c>
-      <c r="D3" s="12">
-        <v>84.279508678999989</v>
-      </c>
-      <c r="E3" s="13">
-        <f t="shared" ref="E3:E13" si="0">C3-D3</f>
-        <v>-0.27950867899998855</v>
-      </c>
-      <c r="F3" s="10"/>
+      <c r="C3" s="9">
+        <v>63.009481234317718</v>
+      </c>
+      <c r="D3" s="10">
+        <v>76.654707428999984</v>
+      </c>
+      <c r="E3" s="11">
+        <f t="shared" ref="E3:E12" si="0">C3-D3</f>
+        <v>-13.645226194682266</v>
+      </c>
+      <c r="F3" s="8"/>
       <c r="G3">
         <v>2065</v>
       </c>
@@ -1296,20 +1214,20 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11">
-        <v>1.5647797643333661</v>
-      </c>
-      <c r="D4" s="12">
-        <v>5.5517369430000016</v>
-      </c>
-      <c r="E4" s="13">
-        <f t="shared" si="0"/>
-        <v>-3.9869571786666356</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="C4" s="9">
+        <v>1.5578266598333812</v>
+      </c>
+      <c r="D4" s="10">
+        <v>5.5428823032999963</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="0"/>
+        <v>-3.9850556434666151</v>
+      </c>
+      <c r="F4" s="8"/>
       <c r="G4">
         <v>2065</v>
       </c>
@@ -1318,22 +1236,21 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
-        <v>93.753719535299751</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1.0480985276492685</v>
-      </c>
-      <c r="E5" s="13">
-        <f t="shared" si="0"/>
-        <v>92.705621007650478</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="C5" s="9">
+        <v>78.591277813480701</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.73516380611214882</v>
+      </c>
+      <c r="E5" s="11">
+        <v>31.6</v>
+      </c>
+      <c r="F5" s="11">
         <f>SUM(E2:E5)</f>
-        <v>59.73456173014543</v>
+        <v>4.4893804961542827E-2</v>
       </c>
       <c r="G5">
         <v>2065</v>
@@ -1343,20 +1260,20 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
-        <v>19.232387618382745</v>
-      </c>
-      <c r="D6" s="12">
-        <v>46.549678151672019</v>
-      </c>
-      <c r="E6" s="13">
-        <f t="shared" si="0"/>
-        <v>-27.317290533289274</v>
-      </c>
-      <c r="F6" s="10"/>
+      <c r="C6" s="9">
+        <v>18.276588620344228</v>
+      </c>
+      <c r="D6" s="10">
+        <v>31.386904779723</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>-13.110316159378772</v>
+      </c>
+      <c r="F6" s="8"/>
       <c r="G6">
         <v>2065</v>
       </c>
@@ -1365,20 +1282,20 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
-        <v>85.66666666666697</v>
-      </c>
-      <c r="D7" s="12">
-        <v>84.279508678999989</v>
-      </c>
-      <c r="E7" s="13">
-        <f t="shared" si="0"/>
-        <v>1.3871579876669813</v>
-      </c>
-      <c r="F7" s="10"/>
+      <c r="C7" s="9">
+        <v>64.005479247473886</v>
+      </c>
+      <c r="D7" s="10">
+        <v>76.654707428999984</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>-12.649228181526098</v>
+      </c>
+      <c r="F7" s="8"/>
       <c r="G7">
         <v>2065</v>
       </c>
@@ -1387,20 +1304,20 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11">
-        <v>1.5301920658665722</v>
-      </c>
-      <c r="D8" s="12">
-        <v>5.5517369430000016</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="0"/>
-        <v>-4.0215448771334295</v>
-      </c>
-      <c r="F8" s="10"/>
+      <c r="C8" s="9">
+        <v>1.5233934747999456</v>
+      </c>
+      <c r="D8" s="10">
+        <v>5.5428823032999963</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>-4.0194888285000507</v>
+      </c>
+      <c r="F8" s="8"/>
       <c r="G8">
         <v>2065</v>
       </c>
@@ -1409,22 +1326,21 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11">
-        <v>90.628873328576447</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1.0480985276492685</v>
-      </c>
-      <c r="E9" s="13">
-        <f t="shared" si="0"/>
-        <v>89.580774800927173</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="C9" s="9">
+        <v>76.844990158366272</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.73516380611214882</v>
+      </c>
+      <c r="E9" s="11">
+        <v>29.8</v>
+      </c>
+      <c r="F9" s="11">
         <f>SUM(E6:E9)</f>
-        <v>59.629097378171451</v>
+        <v>2.0966830595078534E-2</v>
       </c>
       <c r="G9">
         <v>2065</v>
@@ -1434,20 +1350,20 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="11">
-        <v>16.854154098582512</v>
-      </c>
-      <c r="D10" s="12">
-        <v>46.549678151672019</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="0"/>
-        <v>-29.695524053089507</v>
-      </c>
-      <c r="F10" s="10"/>
+      <c r="C10" s="9">
+        <v>16.298497283533834</v>
+      </c>
+      <c r="D10" s="10">
+        <v>31.386904779723</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>-15.088407496189166</v>
+      </c>
+      <c r="F10" s="8"/>
       <c r="G10">
         <v>2065</v>
       </c>
@@ -1456,20 +1372,20 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11">
-        <v>80.666666666666515</v>
-      </c>
-      <c r="D11" s="12">
-        <v>84.279508678999989</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>-3.6128420123334735</v>
-      </c>
-      <c r="F11" s="10"/>
+      <c r="C11" s="9">
+        <v>61.586626929806698</v>
+      </c>
+      <c r="D11" s="10">
+        <v>76.654707428999984</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>-15.068080499193286</v>
+      </c>
+      <c r="F11" s="8"/>
       <c r="G11">
         <v>2065</v>
       </c>
@@ -1478,20 +1394,20 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="11">
-        <v>1.6685428597334067</v>
-      </c>
-      <c r="D12" s="12">
-        <v>5.5517369430000016</v>
-      </c>
-      <c r="E12" s="13">
-        <f t="shared" si="0"/>
-        <v>-3.883194083266595</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="C12" s="9">
+        <v>1.6094764373833641</v>
+      </c>
+      <c r="D12" s="10">
+        <v>5.5428823032999963</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>-3.9334058659166322</v>
+      </c>
+      <c r="F12" s="8"/>
       <c r="G12">
         <v>2065</v>
       </c>
@@ -1500,22 +1416,21 @@
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="11">
-        <v>97.920181144283561</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1.0480985276492685</v>
-      </c>
-      <c r="E13" s="13">
-        <f t="shared" si="0"/>
-        <v>96.872082616634287</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="C13" s="9">
+        <v>81.210709296159621</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.73516380611214882</v>
+      </c>
+      <c r="E13" s="11">
+        <v>34.1</v>
+      </c>
+      <c r="F13" s="11">
         <f>SUM(E10:E13)</f>
-        <v>59.680522467944712</v>
+        <v>1.0106138700919587E-2</v>
       </c>
       <c r="G13">
         <v>2065</v>
@@ -1530,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1541,374 +1456,374 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>26</v>
+      <c r="L1" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="10">
+      <c r="A2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="8">
         <v>0.01</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>16.198699999999999</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="8">
         <v>31.181799999999999</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>36.1631</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <v>81.258899999999997</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="8">
         <v>40.950499999999998</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="8">
         <v>48.329799999999999</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="8">
         <v>216.15799999999999</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="8">
         <v>763.76800000000003</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="8">
         <v>2869.66</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>25</v>
+      <c r="L2" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="A3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="8">
         <f>B2*1.98*3.667</f>
         <v>7.2606600000000007E-2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <f t="shared" ref="C3:K3" si="0">C2*1.98*3.667</f>
         <v>117.61325314199999</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <f t="shared" si="0"/>
         <v>226.400447988</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <f t="shared" si="0"/>
         <v>262.56797364599998</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <f t="shared" si="0"/>
         <v>589.99324487399997</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="8">
         <f t="shared" si="0"/>
         <v>297.32765732999997</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="8">
         <f t="shared" si="0"/>
         <v>350.906245668</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="8">
         <f t="shared" si="0"/>
         <v>1569.4497442799998</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="8">
         <f t="shared" si="0"/>
         <v>5545.4597668799997</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="8">
         <f t="shared" si="0"/>
         <v>20835.625575599995</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>40</v>
+      <c r="L3" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="A4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="9">
         <v>412.04414515147079</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>479.71120448583144</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>533.59114567575159</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>587.47108686567174</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>489.5609057213951</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="9">
         <v>391.65072457712085</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <v>293.74054343283933</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="9">
         <v>195.83036228855781</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <v>97.920181144283561</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="8">
         <v>1.0000000002037268E-2</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>27</v>
+      <c r="L4" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="A5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="9">
         <f>B4*3.667</f>
         <v>1510.9658802704432</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <f t="shared" ref="C5:K5" si="1">C4*3.667</f>
         <v>1759.1009868495439</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <f t="shared" si="1"/>
         <v>1956.6787311929809</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <f t="shared" si="1"/>
         <v>2154.2564755364183</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <f t="shared" si="1"/>
         <v>1795.2198412803557</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <f t="shared" si="1"/>
         <v>1436.1832070243022</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <f t="shared" si="1"/>
         <v>1077.1465727682219</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <f t="shared" si="1"/>
         <v>718.10993851214141</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <f t="shared" si="1"/>
         <v>359.07330425608779</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <f t="shared" si="1"/>
         <v>3.6670000007470657E-2</v>
       </c>
-      <c r="L5" s="10"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="A6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="8">
         <v>0</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <v>0.1</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="22">
         <v>0.5</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="22">
         <v>1</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="22">
         <v>1</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="22">
         <v>1</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="22">
         <v>1</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="22">
         <v>1</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="22">
         <v>1</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="22">
         <v>1</v>
       </c>
-      <c r="L6" s="10"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21">
+      <c r="A7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19">
         <f>C3*C4*C6</f>
         <v>5642.0395328245822</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <f t="shared" ref="D7:K7" si="2">D3*D4*D6</f>
         <v>60402.637211710164</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <f t="shared" si="2"/>
         <v>154251.09285393267</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <f t="shared" si="2"/>
         <v>288837.62733002024</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="19">
         <f t="shared" si="2"/>
         <v>116448.59243011239</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="19">
         <f t="shared" si="2"/>
         <v>103075.39129649574</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="19">
         <f t="shared" si="2"/>
         <v>307345.91201603675</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="19">
         <f t="shared" si="2"/>
         <v>543012.42490122607</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="19">
         <f t="shared" si="2"/>
         <v>208.35625579844771</v>
       </c>
-      <c r="L7" s="21" t="s">
-        <v>36</v>
+      <c r="L7" s="19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="G8" s="22">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22">
+        <v>1</v>
+      </c>
+      <c r="I8" s="22">
+        <v>1</v>
+      </c>
+      <c r="J8" s="22">
+        <v>1</v>
+      </c>
+      <c r="K8" s="22">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="10">
-        <v>0</v>
-      </c>
-      <c r="C8" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="E8" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="G8" s="24">
-        <v>1</v>
-      </c>
-      <c r="H8" s="24">
-        <v>1</v>
-      </c>
-      <c r="I8" s="24">
-        <v>1</v>
-      </c>
-      <c r="J8" s="24">
-        <v>1</v>
-      </c>
-      <c r="K8" s="24">
-        <v>1</v>
-      </c>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="21">
+      <c r="B9" s="19">
         <f>B3*B4*B8</f>
         <v>0</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <f t="shared" ref="C9:K9" si="3">C3*C4*C8</f>
         <v>5642.0395328245822</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <f t="shared" si="3"/>
         <v>30201.318605855082</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <f t="shared" si="3"/>
         <v>77125.546426966335</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <f t="shared" si="3"/>
         <v>216628.22049751517</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="19">
         <f t="shared" si="3"/>
         <v>116448.59243011239</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="19">
         <f t="shared" si="3"/>
         <v>103075.39129649574</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="19">
         <f t="shared" si="3"/>
         <v>307345.91201603675</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="19">
         <f t="shared" si="3"/>
         <v>543012.42490122607</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="19">
         <f t="shared" si="3"/>
         <v>208.35625579844771</v>
       </c>
-      <c r="L9" s="21" t="s">
-        <v>36</v>
+      <c r="L9" s="19" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1918,20 +1833,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L5"/>
+      <selection activeCell="I2" sqref="I2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1941,244 +1856,214 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="B2" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>70.2436328</v>
+        <v>84.733607700000022</v>
       </c>
       <c r="E2" s="3">
-        <v>81.607645699999992</v>
+        <v>85.677241669999987</v>
       </c>
       <c r="F2" s="3">
-        <v>86.272416699999994</v>
+        <v>89.481010920000017</v>
       </c>
       <c r="G2" s="3">
-        <v>84.884640289999993</v>
+        <v>101.76563942000001</v>
       </c>
       <c r="H2" s="3">
-        <v>88.166954060000023</v>
+        <v>99.968273230000037</v>
       </c>
       <c r="I2" s="3">
-        <v>101.90989699000001</v>
+        <v>109.07683239000002</v>
       </c>
       <c r="J2" s="3">
-        <v>94.54575456000002</v>
+        <v>122.78555496000001</v>
       </c>
       <c r="K2" s="3">
-        <v>89.039653090000044</v>
+        <v>115.73762173170002</v>
       </c>
       <c r="L2" s="3">
-        <v>85.562306179999979</v>
-      </c>
-      <c r="M2" s="3">
-        <v>73.658173709000025</v>
-      </c>
-      <c r="N2" s="3">
-        <v>46.549678151672019</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1.9098470612434548</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45.357307542897189</v>
+      </c>
+      <c r="M2" s="24">
+        <v>1.71239880692</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="3">
-        <v>44.395605499999995</v>
+        <v>66.910327609999982</v>
       </c>
       <c r="E3" s="3">
-        <v>48.374613000000004</v>
+        <v>87.526287529999976</v>
       </c>
       <c r="F3" s="3">
-        <v>67.748386989999972</v>
+        <v>110.17362474000004</v>
       </c>
       <c r="G3" s="3">
-        <v>86.969766039999996</v>
+        <v>135.54666775000013</v>
       </c>
       <c r="H3" s="3">
-        <v>110.30567047000001</v>
+        <v>137.27839125</v>
       </c>
       <c r="I3" s="3">
-        <v>136.78225425000005</v>
+        <v>143.1017135270001</v>
       </c>
       <c r="J3" s="3">
-        <v>138.08785718999999</v>
+        <v>136.57614517499999</v>
       </c>
       <c r="K3" s="3">
-        <v>143.64733914800001</v>
+        <v>123.6530358700001</v>
       </c>
       <c r="L3" s="3">
-        <v>141.68814557600012</v>
-      </c>
-      <c r="M3" s="3">
-        <v>122.01701915900006</v>
-      </c>
-      <c r="N3" s="3">
-        <v>84.279508678999989</v>
-      </c>
-      <c r="O3" s="2">
-        <v>43.709021634460008</v>
-      </c>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>105.50390022000002</v>
+      </c>
+      <c r="M3" s="24">
+        <v>45.746044148569027</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="3">
-        <v>10.60209</v>
+        <v>11.5398915</v>
       </c>
       <c r="E4" s="3">
-        <v>10.764452</v>
+        <v>12.052920129999999</v>
       </c>
       <c r="F4" s="3">
-        <v>11.547584569999998</v>
+        <v>11.531662359999999</v>
       </c>
       <c r="G4" s="3">
-        <v>12.095729490000002</v>
+        <v>10.290809960000002</v>
       </c>
       <c r="H4" s="3">
-        <v>11.584444530000003</v>
+        <v>9.5528669719999986</v>
       </c>
       <c r="I4" s="3">
-        <v>10.33281075</v>
+        <v>9.1339031559999988</v>
       </c>
       <c r="J4" s="3">
-        <v>9.3658391909999992</v>
+        <v>8.524197029599998</v>
       </c>
       <c r="K4" s="3">
-        <v>8.7808250350000012</v>
+        <v>7.5592236808000024</v>
       </c>
       <c r="L4" s="3">
-        <v>8.0096817680999965</v>
-      </c>
-      <c r="M4" s="3">
-        <v>6.8705141472000024</v>
-      </c>
-      <c r="N4" s="3">
-        <v>5.5517369430000016</v>
-      </c>
-      <c r="O4" s="2">
-        <v>3.4032527519999998</v>
-      </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>6.2993375862000001</v>
+      </c>
+      <c r="M4" s="24">
+        <v>2.4857155590000004</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>307.62032119999998</v>
+        <v>346.46047862449291</v>
       </c>
       <c r="E5" s="3">
-        <v>319.84684597397495</v>
+        <v>401.74304545189449</v>
       </c>
       <c r="F5" s="3">
-        <v>412.04467006206482</v>
+        <v>438.81374807858731</v>
       </c>
       <c r="G5" s="3">
-        <v>469.050415855859</v>
+        <v>466.39716791613404</v>
       </c>
       <c r="H5" s="3">
-        <v>517.94305148131048</v>
+        <v>356.2003399838872</v>
       </c>
       <c r="I5" s="3">
-        <v>558.9749621746912</v>
+        <v>231.68757625565806</v>
       </c>
       <c r="J5" s="3">
-        <v>419.65565608460105</v>
+        <v>114.11386898044202</v>
       </c>
       <c r="K5" s="3">
-        <v>248.14281568921149</v>
+        <v>24.049892170159726</v>
       </c>
       <c r="L5" s="3">
-        <v>66.320721451382397</v>
-      </c>
-      <c r="M5" s="3">
-        <v>4.7017192300426291</v>
-      </c>
-      <c r="N5" s="3">
-        <v>1.0480985276492685</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.158111221212998</v>
-      </c>
-      <c r="P5" t="s">
-        <v>27</v>
+        <v>3.8394275661690962</v>
+      </c>
+      <c r="M5" s="24">
+        <v>5.5876193889035017E-2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2191,7 +2076,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2208,43 +2093,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11">
-        <v>86.128612434999994</v>
-      </c>
-      <c r="D2" s="12">
-        <v>84.884640289999993</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="C2" s="9">
+        <v>86.35082704460001</v>
+      </c>
+      <c r="D2" s="10">
+        <v>85.677241669999987</v>
+      </c>
+      <c r="E2" s="11">
         <f>C2-D2</f>
-        <v>1.2439721450000008</v>
-      </c>
-      <c r="F2" s="10"/>
+        <v>0.6735853746000231</v>
+      </c>
+      <c r="F2" s="8"/>
       <c r="G2">
         <v>2030</v>
       </c>
@@ -2253,20 +2138,20 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11">
-        <v>85.92277170749999</v>
-      </c>
-      <c r="D3" s="12">
-        <v>86.969766039999996</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="C3" s="9">
+        <v>86.691901820199973</v>
+      </c>
+      <c r="D3" s="10">
+        <v>87.526287529999976</v>
+      </c>
+      <c r="E3" s="11">
         <f t="shared" ref="E3:E13" si="0">C3-D3</f>
-        <v>-1.046994332500006</v>
-      </c>
-      <c r="F3" s="10"/>
+        <v>-0.83438570980000293</v>
+      </c>
+      <c r="F3" s="8"/>
       <c r="G3">
         <v>2030</v>
       </c>
@@ -2275,20 +2160,20 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11">
-        <v>11.494174706499999</v>
-      </c>
-      <c r="D4" s="12">
-        <v>12.095729490000002</v>
-      </c>
-      <c r="E4" s="13">
-        <f t="shared" si="0"/>
-        <v>-0.6015547835000028</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="C4" s="9">
+        <v>11.694998592599999</v>
+      </c>
+      <c r="D4" s="10">
+        <v>12.052920129999999</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.35792153739999932</v>
+      </c>
+      <c r="F4" s="8"/>
       <c r="G4">
         <v>2030</v>
       </c>
@@ -2297,22 +2182,22 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
-        <v>469.82025181602046</v>
-      </c>
-      <c r="D5" s="12">
-        <v>469.050415855859</v>
-      </c>
-      <c r="E5" s="13">
-        <f t="shared" si="0"/>
-        <v>0.76983596016145839</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="C5" s="9">
+        <v>402.26287311761956</v>
+      </c>
+      <c r="D5" s="10">
+        <v>401.74304545189449</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.51982766572507444</v>
+      </c>
+      <c r="F5" s="11">
         <f>SUM(E2:E5)</f>
-        <v>0.36525898916145039</v>
+        <v>1.105793125095289E-3</v>
       </c>
       <c r="G5">
         <v>2030</v>
@@ -2322,20 +2207,20 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
-        <v>86.128612434999994</v>
-      </c>
-      <c r="D6" s="12">
-        <v>84.884640289999993</v>
-      </c>
-      <c r="E6" s="13">
-        <f t="shared" si="0"/>
-        <v>1.2439721450000008</v>
-      </c>
-      <c r="F6" s="10"/>
+      <c r="C6" s="9">
+        <v>88.131256468200007</v>
+      </c>
+      <c r="D6" s="10">
+        <v>85.677241669999987</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>2.4540147982000207</v>
+      </c>
+      <c r="F6" s="8"/>
       <c r="G6">
         <v>2030</v>
       </c>
@@ -2344,20 +2229,20 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
-        <v>89.54057262149999</v>
-      </c>
-      <c r="D7" s="12">
-        <v>86.969766039999996</v>
-      </c>
-      <c r="E7" s="13">
-        <f t="shared" si="0"/>
-        <v>2.5708065814999941</v>
-      </c>
-      <c r="F7" s="10"/>
+      <c r="C7" s="9">
+        <v>88.479363713399977</v>
+      </c>
+      <c r="D7" s="10">
+        <v>87.526287529999976</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.95307618340000033</v>
+      </c>
+      <c r="F7" s="8"/>
       <c r="G7">
         <v>2030</v>
       </c>
@@ -2366,20 +2251,20 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11">
-        <v>11.373183393799998</v>
-      </c>
-      <c r="D8" s="12">
-        <v>12.095729490000002</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="0"/>
-        <v>-0.72254609620000387</v>
-      </c>
-      <c r="F8" s="10"/>
+      <c r="C8" s="9">
+        <v>11.5744315968</v>
+      </c>
+      <c r="D8" s="10">
+        <v>12.052920129999999</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.4784885331999984</v>
+      </c>
+      <c r="F8" s="8"/>
       <c r="G8">
         <v>2030</v>
       </c>
@@ -2388,22 +2273,22 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11">
-        <v>464.87477548111497</v>
-      </c>
-      <c r="D9" s="12">
-        <v>469.050415855859</v>
-      </c>
-      <c r="E9" s="13">
-        <f t="shared" si="0"/>
-        <v>-4.1756403747440345</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="C9" s="9">
+        <v>398.11583318857197</v>
+      </c>
+      <c r="D9" s="10">
+        <v>401.74304545189449</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>-3.6272122633225194</v>
+      </c>
+      <c r="F9" s="11">
         <f>SUM(E6:E9)</f>
-        <v>-1.0834077444440435</v>
+        <v>-0.69860981492249685</v>
       </c>
       <c r="G9">
         <v>2030</v>
@@ -2413,20 +2298,20 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="11">
-        <v>85.221995461999995</v>
-      </c>
-      <c r="D10" s="12">
-        <v>84.884640289999993</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="0"/>
-        <v>0.33735517200000231</v>
-      </c>
-      <c r="F10" s="10"/>
+      <c r="C10" s="9">
+        <v>84.570397620999998</v>
+      </c>
+      <c r="D10" s="10">
+        <v>85.677241669999987</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>-1.1068440489999887</v>
+      </c>
+      <c r="F10" s="8"/>
       <c r="G10">
         <v>2030</v>
       </c>
@@ -2435,20 +2320,20 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11">
-        <v>75.973819193999987</v>
-      </c>
-      <c r="D11" s="12">
-        <v>86.969766039999996</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>-10.99594684600001</v>
-      </c>
-      <c r="F11" s="10"/>
+      <c r="C11" s="9">
+        <v>79.542054247399989</v>
+      </c>
+      <c r="D11" s="10">
+        <v>87.526287529999976</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>-7.9842332825999875</v>
+      </c>
+      <c r="F11" s="8"/>
       <c r="G11">
         <v>2030</v>
       </c>
@@ -2457,20 +2342,20 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="11">
-        <v>11.736157331899999</v>
-      </c>
-      <c r="D12" s="12">
-        <v>12.095729490000002</v>
-      </c>
-      <c r="E12" s="13">
-        <f t="shared" si="0"/>
-        <v>-0.35957215810000243</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="C12" s="9">
+        <v>11.936132584199999</v>
+      </c>
+      <c r="D12" s="10">
+        <v>12.052920129999999</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.11678754579999939</v>
+      </c>
+      <c r="F12" s="8"/>
       <c r="G12">
         <v>2030</v>
       </c>
@@ -2479,22 +2364,22 @@
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="11">
-        <v>479.71120448583144</v>
-      </c>
-      <c r="D13" s="12">
-        <v>469.050415855859</v>
-      </c>
-      <c r="E13" s="13">
-        <f t="shared" si="0"/>
-        <v>10.660788629972444</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="C13" s="9">
+        <v>410.55695297571481</v>
+      </c>
+      <c r="D13" s="10">
+        <v>401.74304545189449</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>8.8139075238203191</v>
+      </c>
+      <c r="F13" s="11">
         <f>SUM(E10:E13)</f>
-        <v>-0.35737520212756557</v>
+        <v>-0.39395735357965656</v>
       </c>
       <c r="G13">
         <v>2030</v>
@@ -2510,61 +2395,61 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C10" sqref="C10:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="8"/>
-    <col min="2" max="2" width="19.54296875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="8"/>
+    <col min="1" max="1" width="8.7265625" style="6"/>
+    <col min="2" max="2" width="19.54296875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>42</v>
+      <c r="G1" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11">
-        <v>96.574560413</v>
-      </c>
-      <c r="D2" s="12">
-        <v>88.166954060000023</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="C2" s="9">
+        <v>91.601632516500004</v>
+      </c>
+      <c r="D2" s="10">
+        <v>89.481010920000017</v>
+      </c>
+      <c r="E2" s="11">
         <f>C2-D2</f>
-        <v>8.4076063529999772</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="8">
+        <v>2.120621596499987</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="6">
         <v>2035</v>
       </c>
     </row>
@@ -2572,21 +2457,21 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11">
-        <v>107.30352503775001</v>
-      </c>
-      <c r="D3" s="12">
-        <v>110.30567047000001</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="C3" s="9">
+        <v>106.80372282960001</v>
+      </c>
+      <c r="D3" s="10">
+        <v>110.17362474000004</v>
+      </c>
+      <c r="E3" s="11">
         <f t="shared" ref="E3:E13" si="0">C3-D3</f>
-        <v>-3.0021454322500034</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="8">
+        <v>-3.3699019104000314</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6">
         <v>2035</v>
       </c>
     </row>
@@ -2594,21 +2479,21 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11">
-        <v>10.416426646249999</v>
-      </c>
-      <c r="D4" s="12">
-        <v>11.584444530000003</v>
-      </c>
-      <c r="E4" s="13">
-        <f t="shared" si="0"/>
-        <v>-1.1680178837500037</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8">
+      <c r="C4" s="9">
+        <v>10.7512551885</v>
+      </c>
+      <c r="D4" s="10">
+        <v>11.531662359999999</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.7804071714999985</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="6">
         <v>2035</v>
       </c>
     </row>
@@ -2616,24 +2501,24 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
-        <v>516.14628451391695</v>
-      </c>
-      <c r="D5" s="12">
-        <v>517.94305148131048</v>
-      </c>
-      <c r="E5" s="13">
-        <f t="shared" si="0"/>
-        <v>-1.7967669673935234</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="C5" s="9">
+        <v>441.15268853185574</v>
+      </c>
+      <c r="D5" s="10">
+        <v>438.81374807858731</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>2.3389404532684352</v>
+      </c>
+      <c r="F5" s="11">
         <f>SUM(E2:E5)</f>
-        <v>2.4406760696064467</v>
-      </c>
-      <c r="G5" s="8">
+        <v>0.3092529678683924</v>
+      </c>
+      <c r="G5" s="6">
         <v>2035</v>
       </c>
     </row>
@@ -2641,21 +2526,21 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
-        <v>100.73646907264998</v>
-      </c>
-      <c r="D6" s="12">
-        <v>88.166954060000023</v>
-      </c>
-      <c r="E6" s="13">
-        <f t="shared" si="0"/>
-        <v>12.569515012649958</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="8">
+      <c r="C6" s="9">
+        <v>93.571560097499997</v>
+      </c>
+      <c r="D6" s="10">
+        <v>89.481010920000017</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>4.0905491774999803</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="6">
         <v>2035</v>
       </c>
     </row>
@@ -2663,21 +2548,21 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
-        <v>114.11681409795001</v>
-      </c>
-      <c r="D7" s="12">
-        <v>110.30567047000001</v>
-      </c>
-      <c r="E7" s="13">
-        <f t="shared" si="0"/>
-        <v>3.8111436279500026</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="8">
+      <c r="C7" s="9">
+        <v>109.10057708399999</v>
+      </c>
+      <c r="D7" s="10">
+        <v>110.17362474000004</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>-1.0730476560000426</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6">
         <v>2035</v>
       </c>
     </row>
@@ -2685,21 +2570,21 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11">
-        <v>10.252167894499998</v>
-      </c>
-      <c r="D8" s="12">
-        <v>11.584444530000003</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="0"/>
-        <v>-1.3322766355000049</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="8">
+      <c r="C8" s="9">
+        <v>10.635650294000001</v>
+      </c>
+      <c r="D8" s="10">
+        <v>11.531662359999999</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.89601206599999728</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="6">
         <v>2035</v>
       </c>
     </row>
@@ -2707,24 +2592,24 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11">
-        <v>504.29900772626729</v>
-      </c>
-      <c r="D9" s="12">
-        <v>517.94305148131048</v>
-      </c>
-      <c r="E9" s="13">
-        <f t="shared" si="0"/>
-        <v>-13.644043755043185</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="C9" s="9">
+        <v>436.40911123581429</v>
+      </c>
+      <c r="D9" s="10">
+        <v>438.81374807858731</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>-2.4046368427730158</v>
+      </c>
+      <c r="F9" s="11">
         <f>SUM(E6:E9)</f>
-        <v>1.4043382500567709</v>
-      </c>
-      <c r="G9" s="8">
+        <v>-0.28314738727307542</v>
+      </c>
+      <c r="G9" s="6">
         <v>2035</v>
       </c>
     </row>
@@ -2732,21 +2617,21 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="11">
-        <v>93.148460026750001</v>
-      </c>
-      <c r="D10" s="12">
-        <v>88.166954060000023</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="0"/>
-        <v>4.9815059667499781</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="8">
+      <c r="C10" s="9">
+        <v>81.751994611499995</v>
+      </c>
+      <c r="D10" s="10">
+        <v>89.481010920000017</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>-7.7290163085000216</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="6">
         <v>2035</v>
       </c>
     </row>
@@ -2754,21 +2639,21 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11">
-        <v>92.320271574600014</v>
-      </c>
-      <c r="D11" s="12">
-        <v>110.30567047000001</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>-17.985398895399996</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="8">
+      <c r="C11" s="9">
+        <v>96.467878684799999</v>
+      </c>
+      <c r="D11" s="10">
+        <v>110.17362474000004</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>-13.705746055200038</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6">
         <v>2035</v>
       </c>
     </row>
@@ -2776,21 +2661,21 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="11">
-        <v>10.848707245149999</v>
-      </c>
-      <c r="D12" s="12">
-        <v>11.584444530000003</v>
-      </c>
-      <c r="E12" s="13">
-        <f t="shared" si="0"/>
-        <v>-0.73573728485000345</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="8">
+      <c r="C12" s="9">
+        <v>11.213674766500001</v>
+      </c>
+      <c r="D12" s="10">
+        <v>11.531662359999999</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.31798759349999806</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="6">
         <v>2035</v>
       </c>
     </row>
@@ -2798,24 +2683,24 @@
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="11">
-        <v>533.59114567575159</v>
-      </c>
-      <c r="D13" s="12">
-        <v>517.94305148131048</v>
-      </c>
-      <c r="E13" s="13">
-        <f t="shared" si="0"/>
-        <v>15.648094194441114</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="C13" s="9">
+        <v>460.12699771602155</v>
+      </c>
+      <c r="D13" s="10">
+        <v>438.81374807858731</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>21.31324963743424</v>
+      </c>
+      <c r="F13" s="11">
         <f>SUM(E10:E13)</f>
-        <v>1.908463980941093</v>
-      </c>
-      <c r="G13" s="8">
+        <v>-0.43950031976581982</v>
+      </c>
+      <c r="G13" s="6">
         <v>2035</v>
       </c>
     </row>
@@ -2829,7 +2714,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2847,43 +2732,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11">
-        <v>107.02050839099999</v>
-      </c>
-      <c r="D2" s="12">
-        <v>101.90989699000001</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="C2" s="9">
+        <v>104.722482537</v>
+      </c>
+      <c r="D2" s="10">
+        <v>101.76563942000001</v>
+      </c>
+      <c r="E2" s="11">
         <f>C2-D2</f>
-        <v>5.1106114009999857</v>
-      </c>
-      <c r="F2" s="10"/>
+        <v>2.9568431169999911</v>
+      </c>
+      <c r="F2" s="8"/>
       <c r="G2" s="1">
         <v>2040</v>
       </c>
@@ -2892,20 +2777,20 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11">
-        <v>128.68427836800004</v>
-      </c>
-      <c r="D3" s="12">
-        <v>136.78225425000005</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="C3" s="9">
+        <v>128.05688740590003</v>
+      </c>
+      <c r="D3" s="10">
+        <v>135.54666775000013</v>
+      </c>
+      <c r="E3" s="11">
         <f t="shared" ref="E3:E13" si="0">C3-D3</f>
-        <v>-8.0979758820000143</v>
-      </c>
-      <c r="F3" s="10"/>
+        <v>-7.4897803441000974</v>
+      </c>
+      <c r="F3" s="8"/>
       <c r="G3" s="1">
         <v>2040</v>
       </c>
@@ -2914,20 +2799,20 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11">
-        <v>9.3386785860000003</v>
-      </c>
-      <c r="D4" s="12">
-        <v>10.33281075</v>
-      </c>
-      <c r="E4" s="13">
-        <f t="shared" si="0"/>
-        <v>-0.99413216399999982</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="C4" s="9">
+        <v>9.2969599590000005</v>
+      </c>
+      <c r="D4" s="10">
+        <v>10.290809960000002</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.99385000100000198</v>
+      </c>
+      <c r="F4" s="8"/>
       <c r="G4" s="1">
         <v>2040</v>
       </c>
@@ -2936,22 +2821,22 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
-        <v>562.47231721181333</v>
-      </c>
-      <c r="D5" s="12">
-        <v>558.9749621746912</v>
-      </c>
-      <c r="E5" s="13">
-        <f t="shared" si="0"/>
-        <v>3.4973550371221336</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="C5" s="9">
+        <v>471.49766688090097</v>
+      </c>
+      <c r="D5" s="10">
+        <v>466.39716791613404</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>5.1004989647669277</v>
+      </c>
+      <c r="F5" s="11">
         <f>SUM(E2:E5)</f>
-        <v>-0.48414160787789484</v>
+        <v>-0.42628826333318059</v>
       </c>
       <c r="G5" s="1">
         <v>2040</v>
@@ -2961,20 +2846,20 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
-        <v>115.34432571029998</v>
-      </c>
-      <c r="D6" s="12">
-        <v>101.90989699000001</v>
-      </c>
-      <c r="E6" s="13">
-        <f t="shared" si="0"/>
-        <v>13.434428720299977</v>
-      </c>
-      <c r="F6" s="10"/>
+      <c r="C6" s="9">
+        <v>109.60953172206</v>
+      </c>
+      <c r="D6" s="10">
+        <v>101.76563942000001</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>7.8438923020599844</v>
+      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="1">
         <v>2040</v>
       </c>
@@ -2983,20 +2868,20 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
-        <v>138.69305557440003</v>
-      </c>
-      <c r="D7" s="12">
-        <v>136.78225425000005</v>
-      </c>
-      <c r="E7" s="13">
-        <f t="shared" si="0"/>
-        <v>1.9108013243999835</v>
-      </c>
-      <c r="F7" s="10"/>
+      <c r="C7" s="9">
+        <v>134.03287548484201</v>
+      </c>
+      <c r="D7" s="10">
+        <v>135.54666775000013</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>-1.5137922651581164</v>
+      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="1">
         <v>2040</v>
       </c>
@@ -3005,20 +2890,20 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11">
-        <v>9.1311523951999991</v>
-      </c>
-      <c r="D8" s="12">
-        <v>10.33281075</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="0"/>
-        <v>-1.201658354800001</v>
-      </c>
-      <c r="F8" s="10"/>
+      <c r="C8" s="9">
+        <v>9.0903608487999996</v>
+      </c>
+      <c r="D8" s="10">
+        <v>10.290809960000002</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>-1.2004491112000029</v>
+      </c>
+      <c r="F8" s="8"/>
       <c r="G8" s="1">
         <v>2040</v>
       </c>
@@ -3027,22 +2912,22 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11">
-        <v>543.72323997141962</v>
-      </c>
-      <c r="D9" s="12">
-        <v>558.9749621746912</v>
-      </c>
-      <c r="E9" s="13">
-        <f t="shared" si="0"/>
-        <v>-15.251722203271584</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="C9" s="9">
+        <v>461.01994095021428</v>
+      </c>
+      <c r="D9" s="10">
+        <v>466.39716791613404</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>-5.3772269659197605</v>
+      </c>
+      <c r="F9" s="11">
         <f>SUM(E6:E9)</f>
-        <v>-1.1081505133716245</v>
+        <v>-0.24757604021789525</v>
       </c>
       <c r="G9" s="1">
         <v>2040</v>
@@ -3052,20 +2937,20 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="11">
-        <v>101.07492459149999</v>
-      </c>
-      <c r="D10" s="12">
-        <v>101.90989699000001</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="0"/>
-        <v>-0.83497239850001392</v>
-      </c>
-      <c r="F10" s="10"/>
+      <c r="C10" s="9">
+        <v>92.737576202210008</v>
+      </c>
+      <c r="D10" s="10">
+        <v>101.76563942000001</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>-9.028063217790006</v>
+      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="1">
         <v>2040</v>
       </c>
@@ -3074,20 +2959,20 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11">
-        <v>108.66672395520003</v>
-      </c>
-      <c r="D11" s="12">
-        <v>136.78225425000005</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>-28.115530294800024</v>
-      </c>
-      <c r="F11" s="10"/>
+      <c r="C11" s="9">
+        <v>113.40148806944703</v>
+      </c>
+      <c r="D11" s="10">
+        <v>135.54666775000013</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>-22.145179680553099</v>
+      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="1">
         <v>2040</v>
       </c>
@@ -3096,20 +2981,20 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="11">
-        <v>9.9612571583999987</v>
-      </c>
-      <c r="D12" s="12">
-        <v>10.33281075</v>
-      </c>
-      <c r="E12" s="13">
-        <f t="shared" si="0"/>
-        <v>-0.37155359160000145</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="C12" s="9">
+        <v>9.8134577344999983</v>
+      </c>
+      <c r="D12" s="10">
+        <v>10.290809960000002</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.47735222550000422</v>
+      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="1">
         <v>2040</v>
       </c>
@@ -3118,22 +3003,22 @@
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="11">
-        <v>587.47108686567174</v>
-      </c>
-      <c r="D13" s="12">
-        <v>558.9749621746912</v>
-      </c>
-      <c r="E13" s="13">
-        <f t="shared" si="0"/>
-        <v>28.496124690980537</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="C13" s="9">
+        <v>497.69198170761769</v>
+      </c>
+      <c r="D13" s="10">
+        <v>466.39716791613404</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>31.294813791483648</v>
+      </c>
+      <c r="F13" s="11">
         <f>SUM(E10:E13)</f>
-        <v>-0.82593159391950266</v>
+        <v>-0.35578133235946297</v>
       </c>
       <c r="G13" s="1">
         <v>2040</v>
@@ -3149,7 +3034,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A13"/>
+      <selection activeCell="C10" sqref="C10:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3164,43 +3049,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>42</v>
+      <c r="G1" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11">
-        <v>89.1854236591671</v>
-      </c>
-      <c r="D2" s="12">
-        <v>94.54575456000002</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="C2" s="9">
+        <v>87.270402114166245</v>
+      </c>
+      <c r="D2" s="10">
+        <v>99.968273230000037</v>
+      </c>
+      <c r="E2" s="11">
         <f>C2-D2</f>
-        <v>-5.3603309008329205</v>
-      </c>
-      <c r="F2" s="10"/>
+        <v>-12.697871115833792</v>
+      </c>
+      <c r="F2" s="8"/>
       <c r="G2">
         <v>2045</v>
       </c>
@@ -3209,20 +3094,20 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11">
-        <v>120</v>
-      </c>
-      <c r="D3" s="12">
-        <v>138.08785718999999</v>
-      </c>
-      <c r="E3" s="13">
-        <f t="shared" ref="E3:E13" si="0">C3-D3</f>
-        <v>-18.087857189999994</v>
-      </c>
-      <c r="F3" s="10"/>
+      <c r="C3" s="9">
+        <v>115.04740617158404</v>
+      </c>
+      <c r="D3" s="10">
+        <v>137.27839125</v>
+      </c>
+      <c r="E3" s="11">
+        <f t="shared" ref="E3:E12" si="0">C3-D3</f>
+        <v>-22.230985078415955</v>
+      </c>
+      <c r="F3" s="8"/>
       <c r="G3">
         <v>2045</v>
       </c>
@@ -3231,20 +3116,20 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11">
-        <v>7.7838988216667531</v>
-      </c>
-      <c r="D4" s="12">
-        <v>9.3658391909999992</v>
-      </c>
-      <c r="E4" s="13">
-        <f t="shared" si="0"/>
-        <v>-1.5819403693332461</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="C4" s="9">
+        <v>7.7491332991666013</v>
+      </c>
+      <c r="D4" s="10">
+        <v>9.5528669719999986</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="0"/>
+        <v>-1.8037336728333973</v>
+      </c>
+      <c r="F4" s="8"/>
       <c r="G4">
         <v>2045</v>
       </c>
@@ -3253,22 +3138,21 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
-        <v>468.72859767651244</v>
-      </c>
-      <c r="D5" s="12">
-        <v>419.65565608460105</v>
-      </c>
-      <c r="E5" s="13">
-        <f t="shared" si="0"/>
-        <v>49.072941591911388</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="C5" s="9">
+        <v>392.91638906741355</v>
+      </c>
+      <c r="D5" s="10">
+        <v>356.2003399838872</v>
+      </c>
+      <c r="E5" s="11">
+        <v>28.7</v>
+      </c>
+      <c r="F5" s="11">
         <f>SUM(E2:E5)</f>
-        <v>24.042813131745227</v>
+        <v>-8.0325898670831428</v>
       </c>
       <c r="G5">
         <v>2045</v>
@@ -3278,20 +3162,20 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
-        <v>96.121938091916491</v>
-      </c>
-      <c r="D6" s="12">
-        <v>94.54575456000002</v>
-      </c>
-      <c r="E6" s="13">
-        <f t="shared" si="0"/>
-        <v>1.5761835319164703</v>
-      </c>
-      <c r="F6" s="10"/>
+      <c r="C6" s="9">
+        <v>91.342943101717538</v>
+      </c>
+      <c r="D6" s="10">
+        <v>99.968273230000037</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>-8.6253301282824992</v>
+      </c>
+      <c r="F6" s="8"/>
       <c r="G6">
         <v>2045</v>
       </c>
@@ -3300,20 +3184,20 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
-        <v>128.33333333333303</v>
-      </c>
-      <c r="D7" s="12">
-        <v>138.08785718999999</v>
-      </c>
-      <c r="E7" s="13">
-        <f t="shared" si="0"/>
-        <v>-9.7545238566669639</v>
-      </c>
-      <c r="F7" s="10"/>
+      <c r="C7" s="9">
+        <v>120.02739623736852</v>
+      </c>
+      <c r="D7" s="10">
+        <v>137.27839125</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>-17.250995012631478</v>
+      </c>
+      <c r="F7" s="8"/>
       <c r="G7">
         <v>2045</v>
       </c>
@@ -3322,20 +3206,20 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11">
-        <v>7.6109603293332384</v>
-      </c>
-      <c r="D8" s="12">
-        <v>9.3658391909999992</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="0"/>
-        <v>-1.7548788616667608</v>
-      </c>
-      <c r="F8" s="10"/>
+      <c r="C8" s="9">
+        <v>7.5769673739999917</v>
+      </c>
+      <c r="D8" s="10">
+        <v>9.5528669719999986</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>-1.9758995980000069</v>
+      </c>
+      <c r="F8" s="8"/>
       <c r="G8">
         <v>2045</v>
       </c>
@@ -3344,22 +3228,21 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11">
-        <v>453.10436664285226</v>
-      </c>
-      <c r="D9" s="12">
-        <v>419.65565608460105</v>
-      </c>
-      <c r="E9" s="13">
-        <f t="shared" si="0"/>
-        <v>33.448710558251207</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="C9" s="9">
+        <v>384.1849507918414</v>
+      </c>
+      <c r="D9" s="10">
+        <v>356.2003399838872</v>
+      </c>
+      <c r="E9" s="11">
+        <v>19.8</v>
+      </c>
+      <c r="F9" s="11">
         <f>SUM(E6:E9)</f>
-        <v>23.515491371833953</v>
+        <v>-8.0522247389139814</v>
       </c>
       <c r="G9">
         <v>2045</v>
@@ -3369,20 +3252,20 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="11">
-        <v>84.230770492916236</v>
-      </c>
-      <c r="D10" s="12">
-        <v>94.54575456000002</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="0"/>
-        <v>-10.314984067083785</v>
-      </c>
-      <c r="F10" s="10"/>
+      <c r="C10" s="9">
+        <v>77.282980168507493</v>
+      </c>
+      <c r="D10" s="10">
+        <v>99.968273230000037</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>-22.685293061492544</v>
+      </c>
+      <c r="F10" s="8"/>
       <c r="G10">
         <v>2045</v>
       </c>
@@ -3391,20 +3274,20 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11">
-        <v>103.33333333333348</v>
-      </c>
-      <c r="D11" s="12">
-        <v>138.08785718999999</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>-34.754523856666509</v>
-      </c>
-      <c r="F11" s="10"/>
+      <c r="C11" s="9">
+        <v>102.83457339120559</v>
+      </c>
+      <c r="D11" s="10">
+        <v>137.27839125</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>-34.443817858794404</v>
+      </c>
+      <c r="F11" s="8"/>
       <c r="G11">
         <v>2045</v>
       </c>
@@ -3413,20 +3296,20 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="11">
-        <v>8.3027142986667286</v>
-      </c>
-      <c r="D12" s="12">
-        <v>9.3658391909999992</v>
-      </c>
-      <c r="E12" s="13">
-        <f t="shared" si="0"/>
-        <v>-1.0631248923332706</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="C12" s="9">
+        <v>8.1795481120833529</v>
+      </c>
+      <c r="D12" s="10">
+        <v>9.5528669719999986</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>-1.3733188599166457</v>
+      </c>
+      <c r="F12" s="8"/>
       <c r="G12">
         <v>2045</v>
       </c>
@@ -3435,22 +3318,21 @@
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="11">
-        <v>489.5609057213951</v>
-      </c>
-      <c r="D13" s="12">
-        <v>419.65565608460105</v>
-      </c>
-      <c r="E13" s="13">
-        <f t="shared" si="0"/>
-        <v>69.905249636794053</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="C13" s="9">
+        <v>414.74498475635482</v>
+      </c>
+      <c r="D13" s="10">
+        <v>356.2003399838872</v>
+      </c>
+      <c r="E13" s="11">
+        <v>41.4</v>
+      </c>
+      <c r="F13" s="11">
         <f>SUM(E10:E13)</f>
-        <v>23.772616820710489</v>
+        <v>-17.102429780203593</v>
       </c>
       <c r="G13">
         <v>2045</v>
@@ -3465,8 +3347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection sqref="A1:A13"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3484,43 +3366,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11">
-        <v>71.350338927333723</v>
-      </c>
-      <c r="D2" s="12">
-        <v>89.039653090000044</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="C2" s="9">
+        <v>69.81832169133304</v>
+      </c>
+      <c r="D2" s="10">
+        <v>109.07683239000002</v>
+      </c>
+      <c r="E2" s="11">
         <f>C2-D2</f>
-        <v>-17.689314162666321</v>
-      </c>
-      <c r="F2" s="10"/>
+        <v>-39.258510698666981</v>
+      </c>
+      <c r="F2" s="8"/>
       <c r="G2" s="1">
         <v>2050</v>
       </c>
@@ -3529,20 +3411,20 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11">
-        <v>111</v>
-      </c>
-      <c r="D3" s="12">
-        <v>143.64733914800001</v>
-      </c>
-      <c r="E3" s="13">
-        <f t="shared" ref="E3:E13" si="0">C3-D3</f>
-        <v>-32.647339148000015</v>
-      </c>
-      <c r="F3" s="10"/>
+      <c r="C3" s="9">
+        <v>102.03792493726723</v>
+      </c>
+      <c r="D3" s="10">
+        <v>143.1017135270001</v>
+      </c>
+      <c r="E3" s="11">
+        <f t="shared" ref="E3:E12" si="0">C3-D3</f>
+        <v>-41.063788589732866</v>
+      </c>
+      <c r="F3" s="8"/>
       <c r="G3" s="1">
         <v>2050</v>
       </c>
@@ -3551,20 +3433,20 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11">
-        <v>6.2291190573333779</v>
-      </c>
-      <c r="D4" s="12">
-        <v>8.7808250350000012</v>
-      </c>
-      <c r="E4" s="13">
-        <f t="shared" si="0"/>
-        <v>-2.5517059776666233</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="C4" s="9">
+        <v>6.2013066393333247</v>
+      </c>
+      <c r="D4" s="10">
+        <v>9.1339031559999988</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="0"/>
+        <v>-2.9325965166666741</v>
+      </c>
+      <c r="F4" s="8"/>
       <c r="G4" s="1">
         <v>2050</v>
       </c>
@@ -3573,22 +3455,21 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
-        <v>374.98487814120745</v>
-      </c>
-      <c r="D5" s="12">
-        <v>248.14281568921149</v>
-      </c>
-      <c r="E5" s="13">
-        <f t="shared" si="0"/>
-        <v>126.84206245199596</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="C5" s="9">
+        <v>314.33511125393125</v>
+      </c>
+      <c r="D5" s="10">
+        <v>231.68757625565806</v>
+      </c>
+      <c r="E5" s="11">
+        <v>60.3</v>
+      </c>
+      <c r="F5" s="11">
         <f>SUM(E2:E5)</f>
-        <v>73.953703163662993</v>
+        <v>-22.954895805066528</v>
       </c>
       <c r="G5" s="1">
         <v>2050</v>
@@ -3598,20 +3479,20 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
-        <v>76.899550473533054</v>
-      </c>
-      <c r="D6" s="12">
-        <v>89.039653090000044</v>
-      </c>
-      <c r="E6" s="13">
-        <f t="shared" si="0"/>
-        <v>-12.14010261646699</v>
-      </c>
-      <c r="F6" s="10"/>
+      <c r="C6" s="9">
+        <v>73.076354481374437</v>
+      </c>
+      <c r="D6" s="10">
+        <v>109.07683239000002</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>-36.000477908625584</v>
+      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="1">
         <v>2050</v>
       </c>
@@ -3620,20 +3501,20 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
-        <v>117.66666666666697</v>
-      </c>
-      <c r="D7" s="12">
-        <v>143.64733914800001</v>
-      </c>
-      <c r="E7" s="13">
-        <f t="shared" si="0"/>
-        <v>-25.980672481333045</v>
-      </c>
-      <c r="F7" s="10"/>
+      <c r="C7" s="9">
+        <v>106.02191698989463</v>
+      </c>
+      <c r="D7" s="10">
+        <v>143.1017135270001</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>-37.079796537105466</v>
+      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="1">
         <v>2050</v>
       </c>
@@ -3642,20 +3523,20 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11">
-        <v>6.0907682634666571</v>
-      </c>
-      <c r="D8" s="12">
-        <v>8.7808250350000012</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="0"/>
-        <v>-2.6900567715333441</v>
-      </c>
-      <c r="F8" s="10"/>
+      <c r="C8" s="9">
+        <v>6.063573899200037</v>
+      </c>
+      <c r="D8" s="10">
+        <v>9.1339031559999988</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>-3.0703292567999618</v>
+      </c>
+      <c r="F8" s="8"/>
       <c r="G8" s="1">
         <v>2050</v>
       </c>
@@ -3664,22 +3545,21 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11">
-        <v>362.48549331428512</v>
-      </c>
-      <c r="D9" s="12">
-        <v>248.14281568921149</v>
-      </c>
-      <c r="E9" s="13">
-        <f t="shared" si="0"/>
-        <v>114.34267762507363</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="C9" s="9">
+        <v>307.34996063347353</v>
+      </c>
+      <c r="D9" s="10">
+        <v>231.68757625565806</v>
+      </c>
+      <c r="E9" s="11">
+        <v>53.2</v>
+      </c>
+      <c r="F9" s="11">
         <f>SUM(E6:E9)</f>
-        <v>73.53184575574025</v>
+        <v>-22.950603702531012</v>
       </c>
       <c r="G9" s="1">
         <v>2050</v>
@@ -3689,20 +3569,20 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="11">
-        <v>67.386616394333032</v>
-      </c>
-      <c r="D10" s="12">
-        <v>89.039653090000044</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="0"/>
-        <v>-21.653036695667012</v>
-      </c>
-      <c r="F10" s="10"/>
+      <c r="C10" s="9">
+        <v>61.828384134806583</v>
+      </c>
+      <c r="D10" s="10">
+        <v>109.07683239000002</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>-47.248448255193438</v>
+      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="1">
         <v>2050</v>
       </c>
@@ -3711,20 +3591,20 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11">
-        <v>97.666666666666515</v>
-      </c>
-      <c r="D11" s="12">
-        <v>143.64733914800001</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>-45.980672481333499</v>
-      </c>
-      <c r="F11" s="10"/>
+      <c r="C11" s="9">
+        <v>92.267658712964476</v>
+      </c>
+      <c r="D11" s="10">
+        <v>143.1017135270001</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>-50.834054814035625</v>
+      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="1">
         <v>2050</v>
       </c>
@@ -3733,20 +3613,20 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="11">
-        <v>6.6441714389334265</v>
-      </c>
-      <c r="D12" s="12">
-        <v>8.7808250350000012</v>
-      </c>
-      <c r="E12" s="13">
-        <f t="shared" si="0"/>
-        <v>-2.1366535960665747</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="C12" s="9">
+        <v>6.5456384896666577</v>
+      </c>
+      <c r="D12" s="10">
+        <v>9.1339031559999988</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>-2.5882646663333411</v>
+      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="1">
         <v>2050</v>
       </c>
@@ -3755,22 +3635,21 @@
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="11">
-        <v>391.65072457712085</v>
-      </c>
-      <c r="D13" s="12">
-        <v>248.14281568921149</v>
-      </c>
-      <c r="E13" s="13">
-        <f t="shared" si="0"/>
-        <v>143.50790888790937</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="C13" s="9">
+        <v>331.79798780508281</v>
+      </c>
+      <c r="D13" s="10">
+        <v>231.68757625565806</v>
+      </c>
+      <c r="E13" s="11">
+        <v>70.5</v>
+      </c>
+      <c r="F13" s="11">
         <f>SUM(E10:E13)</f>
-        <v>73.737546114842274</v>
+        <v>-30.170767735562407</v>
       </c>
       <c r="G13" s="1">
         <v>2050</v>
@@ -3786,7 +3665,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3802,43 +3681,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>42</v>
+      <c r="G1" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11">
-        <v>53.515254195500347</v>
-      </c>
-      <c r="D2" s="12">
-        <v>85.562306179999979</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="C2" s="9">
+        <v>52.366241268499834</v>
+      </c>
+      <c r="D2" s="10">
+        <v>83.665686990000026</v>
+      </c>
+      <c r="E2" s="11">
         <f>C2-D2</f>
-        <v>-32.047051984499632</v>
-      </c>
-      <c r="F2" s="10"/>
+        <v>-31.299445721500192</v>
+      </c>
+      <c r="F2" s="8"/>
       <c r="G2">
         <v>2055</v>
       </c>
@@ -3847,20 +3726,20 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11">
-        <v>102</v>
-      </c>
-      <c r="D3" s="12">
-        <v>141.68814557600012</v>
-      </c>
-      <c r="E3" s="13">
-        <f t="shared" ref="E3:E13" si="0">C3-D3</f>
-        <v>-39.688145576000124</v>
-      </c>
-      <c r="F3" s="10"/>
+      <c r="C3" s="9">
+        <v>89.028443702950426</v>
+      </c>
+      <c r="D3" s="10">
+        <v>132.22592745699984</v>
+      </c>
+      <c r="E3" s="11">
+        <f t="shared" ref="E3:E12" si="0">C3-D3</f>
+        <v>-43.197483754049415</v>
+      </c>
+      <c r="F3" s="8"/>
       <c r="G3">
         <v>2055</v>
       </c>
@@ -3869,20 +3748,20 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11">
-        <v>4.6743392930000027</v>
-      </c>
-      <c r="D4" s="12">
-        <v>8.0096817680999965</v>
-      </c>
-      <c r="E4" s="13">
-        <f t="shared" si="0"/>
-        <v>-3.3353424750999938</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="C4" s="9">
+        <v>4.6534799795000481</v>
+      </c>
+      <c r="D4" s="10">
+        <v>7.983573863900002</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="0"/>
+        <v>-3.3300938843999539</v>
+      </c>
+      <c r="F4" s="8"/>
       <c r="G4">
         <v>2055</v>
       </c>
@@ -3891,22 +3770,21 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
-        <v>281.24115860590973</v>
-      </c>
-      <c r="D5" s="12">
-        <v>66.320721451382397</v>
-      </c>
-      <c r="E5" s="13">
-        <f t="shared" si="0"/>
-        <v>214.92043715452735</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="C5" s="9">
+        <v>235.75383344044894</v>
+      </c>
+      <c r="D5" s="10">
+        <v>22.685257833780131</v>
+      </c>
+      <c r="E5" s="11">
+        <v>77.8</v>
+      </c>
+      <c r="F5" s="11">
         <f>SUM(E2:E5)</f>
-        <v>139.8498971189276</v>
+        <v>-2.7023359949566839E-2</v>
       </c>
       <c r="G5">
         <v>2055</v>
@@ -3916,20 +3794,20 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
-        <v>57.677162855149618</v>
-      </c>
-      <c r="D6" s="12">
-        <v>85.562306179999979</v>
-      </c>
-      <c r="E6" s="13">
-        <f t="shared" si="0"/>
-        <v>-27.885143324850361</v>
-      </c>
-      <c r="F6" s="10"/>
+      <c r="C6" s="9">
+        <v>54.809765861030428</v>
+      </c>
+      <c r="D6" s="10">
+        <v>83.665686990000026</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>-28.855921128969598</v>
+      </c>
+      <c r="F6" s="8"/>
       <c r="G6">
         <v>2055</v>
       </c>
@@ -3938,20 +3816,20 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
-        <v>107</v>
-      </c>
-      <c r="D7" s="12">
-        <v>141.68814557600012</v>
-      </c>
-      <c r="E7" s="13">
-        <f t="shared" si="0"/>
-        <v>-34.688145576000124</v>
-      </c>
-      <c r="F7" s="10"/>
+      <c r="C7" s="9">
+        <v>92.016437742420749</v>
+      </c>
+      <c r="D7" s="10">
+        <v>132.22592745699984</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>-40.209489714579092</v>
+      </c>
+      <c r="F7" s="8"/>
       <c r="G7">
         <v>2055</v>
       </c>
@@ -3960,20 +3838,20 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11">
-        <v>4.5705761975999621</v>
-      </c>
-      <c r="D8" s="12">
-        <v>8.0096817680999965</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="0"/>
-        <v>-3.4391055705000344</v>
-      </c>
-      <c r="F8" s="10"/>
+      <c r="C8" s="9">
+        <v>4.5501804243999686</v>
+      </c>
+      <c r="D8" s="10">
+        <v>7.983573863900002</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>-3.4333934395000334</v>
+      </c>
+      <c r="F8" s="8"/>
       <c r="G8">
         <v>2055</v>
       </c>
@@ -3982,22 +3860,21 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11">
-        <v>271.86661998571071</v>
-      </c>
-      <c r="D9" s="12">
-        <v>66.320721451382397</v>
-      </c>
-      <c r="E9" s="13">
-        <f t="shared" si="0"/>
-        <v>205.54589853432833</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="C9" s="9">
+        <v>230.51497047510566</v>
+      </c>
+      <c r="D9" s="10">
+        <v>22.685257833780131</v>
+      </c>
+      <c r="E9" s="11">
+        <v>72.5</v>
+      </c>
+      <c r="F9" s="11">
         <f>SUM(E6:E9)</f>
-        <v>139.53350406297781</v>
+        <v>1.1957169512726296E-3</v>
       </c>
       <c r="G9">
         <v>2055</v>
@@ -4007,20 +3884,20 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="11">
-        <v>50.542462295749829</v>
-      </c>
-      <c r="D10" s="12">
-        <v>85.562306179999979</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="0"/>
-        <v>-35.01984388425015</v>
-      </c>
-      <c r="F10" s="10"/>
+      <c r="C10" s="9">
+        <v>48.875491850600156</v>
+      </c>
+      <c r="D10" s="10">
+        <v>83.665686990000026</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>-34.79019513939987</v>
+      </c>
+      <c r="F10" s="8"/>
       <c r="G10">
         <v>2055</v>
       </c>
@@ -4029,20 +3906,20 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11">
-        <v>92</v>
-      </c>
-      <c r="D11" s="12">
-        <v>141.68814557600012</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>-49.688145576000124</v>
-      </c>
-      <c r="F11" s="10"/>
+      <c r="C11" s="9">
+        <v>84.759880789420095</v>
+      </c>
+      <c r="D11" s="10">
+        <v>132.22592745699984</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>-47.466046667579747</v>
+      </c>
+      <c r="F11" s="8"/>
       <c r="G11">
         <v>2055</v>
       </c>
@@ -4051,20 +3928,20 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="11">
-        <v>4.9856285792000108</v>
-      </c>
-      <c r="D12" s="12">
-        <v>8.0096817680999965</v>
-      </c>
-      <c r="E12" s="13">
-        <f t="shared" si="0"/>
-        <v>-3.0240531888999858</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="C12" s="9">
+        <v>4.8084293121499968</v>
+      </c>
+      <c r="D12" s="10">
+        <v>7.983573863900002</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>-3.1751445517500052</v>
+      </c>
+      <c r="F12" s="8"/>
       <c r="G12">
         <v>2055</v>
       </c>
@@ -4073,22 +3950,21 @@
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="11">
-        <v>293.74054343283933</v>
-      </c>
-      <c r="D13" s="12">
-        <v>66.320721451382397</v>
-      </c>
-      <c r="E13" s="13">
-        <f t="shared" si="0"/>
-        <v>227.41982198145695</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="C13" s="9">
+        <v>243.61212788846751</v>
+      </c>
+      <c r="D13" s="10">
+        <v>22.685257833780131</v>
+      </c>
+      <c r="E13" s="11">
+        <v>85.4</v>
+      </c>
+      <c r="F13" s="11">
         <f>SUM(E10:E13)</f>
-        <v>139.68777933230669</v>
+        <v>-3.1386358729619701E-2</v>
       </c>
       <c r="G13">
         <v>2055</v>
@@ -4104,61 +3980,61 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="8"/>
-    <col min="2" max="2" width="18.7265625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="8"/>
+    <col min="1" max="1" width="8.7265625" style="6"/>
+    <col min="2" max="2" width="18.7265625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>42</v>
+      <c r="G1" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11">
-        <v>35.680169463666971</v>
-      </c>
-      <c r="D2" s="12">
-        <v>73.658173709000025</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="C2" s="9">
+        <v>34.914160845666629</v>
+      </c>
+      <c r="D2" s="10">
+        <v>69.58423558299998</v>
+      </c>
+      <c r="E2" s="11">
         <f>C2-D2</f>
-        <v>-37.978004245333054</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="8">
+        <v>-34.670074737333351</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="6">
         <v>2060</v>
       </c>
     </row>
@@ -4166,21 +4042,21 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11">
-        <v>93</v>
-      </c>
-      <c r="D3" s="12">
-        <v>122.01701915900006</v>
-      </c>
-      <c r="E3" s="13">
-        <f t="shared" ref="E3:E13" si="0">C3-D3</f>
-        <v>-29.017019159000057</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="8">
+      <c r="C3" s="9">
+        <v>76.018962468633617</v>
+      </c>
+      <c r="D3" s="10">
+        <v>112.89671671800005</v>
+      </c>
+      <c r="E3" s="11">
+        <f t="shared" ref="E3:E12" si="0">C3-D3</f>
+        <v>-36.877754249366433</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6">
         <v>2060</v>
       </c>
     </row>
@@ -4188,21 +4064,21 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11">
-        <v>3.1195595286667412</v>
-      </c>
-      <c r="D4" s="12">
-        <v>6.8705141472000024</v>
-      </c>
-      <c r="E4" s="13">
-        <f t="shared" si="0"/>
-        <v>-3.7509546185332612</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8">
+      <c r="C4" s="9">
+        <v>3.1056533196666578</v>
+      </c>
+      <c r="D4" s="10">
+        <v>6.8889927511999982</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="0"/>
+        <v>-3.7833394315333404</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="6">
         <v>2060</v>
       </c>
     </row>
@@ -4210,24 +4086,23 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
-        <v>187.49743907060474</v>
-      </c>
-      <c r="D5" s="12">
-        <v>4.7017192300426291</v>
-      </c>
-      <c r="E5" s="13">
-        <f t="shared" si="0"/>
-        <v>182.7957198405621</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="C5" s="9">
+        <v>157.172555626963</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2.9562389799851001</v>
+      </c>
+      <c r="E5" s="11">
+        <v>75.3</v>
+      </c>
+      <c r="F5" s="11">
         <f>SUM(E2:E5)</f>
-        <v>112.04974181769573</v>
-      </c>
-      <c r="G5" s="8">
+        <v>-3.1168418233121997E-2</v>
+      </c>
+      <c r="G5" s="6">
         <v>2060</v>
       </c>
     </row>
@@ -4235,21 +4110,21 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
-        <v>38.454775236766181</v>
-      </c>
-      <c r="D6" s="12">
-        <v>73.658173709000025</v>
-      </c>
-      <c r="E6" s="13">
-        <f t="shared" si="0"/>
-        <v>-35.203398472233843</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="8">
+      <c r="C6" s="9">
+        <v>36.543177240687328</v>
+      </c>
+      <c r="D6" s="10">
+        <v>69.58423558299998</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>-33.041058342312652</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="6">
         <v>2060</v>
       </c>
     </row>
@@ -4257,21 +4132,21 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
-        <v>96.33333333333303</v>
-      </c>
-      <c r="D7" s="12">
-        <v>122.01701915900006</v>
-      </c>
-      <c r="E7" s="13">
-        <f t="shared" si="0"/>
-        <v>-25.683685825667027</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="8">
+      <c r="C7" s="9">
+        <v>78.010958494946863</v>
+      </c>
+      <c r="D7" s="10">
+        <v>112.89671671800005</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>-34.885758223053188</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6">
         <v>2060</v>
       </c>
     </row>
@@ -4279,21 +4154,21 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11">
-        <v>3.0503841317332672</v>
-      </c>
-      <c r="D8" s="12">
-        <v>6.8705141472000024</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="0"/>
-        <v>-3.8201300154667353</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="8">
+      <c r="C8" s="9">
+        <v>3.0367869496000139</v>
+      </c>
+      <c r="D8" s="10">
+        <v>6.8889927511999982</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>-3.8522058015999843</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="6">
         <v>2060</v>
       </c>
     </row>
@@ -4301,24 +4176,23 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11">
-        <v>181.24774665714358</v>
-      </c>
-      <c r="D9" s="12">
-        <v>4.7017192300426291</v>
-      </c>
-      <c r="E9" s="13">
-        <f t="shared" si="0"/>
-        <v>176.54602742710094</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="C9" s="9">
+        <v>153.67998031673415</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2.9562389799851001</v>
+      </c>
+      <c r="E9" s="11">
+        <v>71.8</v>
+      </c>
+      <c r="F9" s="11">
         <f>SUM(E6:E9)</f>
-        <v>111.83881311373334</v>
-      </c>
-      <c r="G9" s="8">
+        <v>2.0977633034178211E-2</v>
+      </c>
+      <c r="G9" s="6">
         <v>2060</v>
       </c>
     </row>
@@ -4326,21 +4200,21 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="11">
-        <v>33.698308197165716</v>
-      </c>
-      <c r="D10" s="12">
-        <v>73.658173709000025</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="0"/>
-        <v>-39.959865511834309</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="8">
+      <c r="C10" s="9">
+        <v>32.58699456706745</v>
+      </c>
+      <c r="D10" s="10">
+        <v>69.58423558299998</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>-36.997241015932531</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="6">
         <v>2060</v>
       </c>
     </row>
@@ -4348,21 +4222,21 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11">
-        <v>86.333333333333485</v>
-      </c>
-      <c r="D11" s="12">
-        <v>122.01701915900006</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>-35.683685825666572</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="8">
+      <c r="C11" s="9">
+        <v>73.173253859613396</v>
+      </c>
+      <c r="D11" s="10">
+        <v>112.89671671800005</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>-39.723462858386654</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6">
         <v>2060</v>
       </c>
     </row>
@@ -4370,21 +4244,21 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="11">
-        <v>3.3270857194667087</v>
-      </c>
-      <c r="D12" s="12">
-        <v>6.8705141472000024</v>
-      </c>
-      <c r="E12" s="13">
-        <f t="shared" si="0"/>
-        <v>-3.5434284277332937</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="8">
+      <c r="C12" s="9">
+        <v>3.2089528747666236</v>
+      </c>
+      <c r="D12" s="10">
+        <v>6.8889927511999982</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>-3.6800398764333746</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="6">
         <v>2060</v>
       </c>
     </row>
@@ -4392,24 +4266,23 @@
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="11">
-        <v>195.83036228855781</v>
-      </c>
-      <c r="D13" s="12">
-        <v>4.7017192300426291</v>
-      </c>
-      <c r="E13" s="13">
-        <f t="shared" si="0"/>
-        <v>191.12864305851517</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="C13" s="9">
+        <v>162.4114185923172</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2.9562389799851001</v>
+      </c>
+      <c r="E13" s="11">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="F13" s="11">
         <f>SUM(E10:E13)</f>
-        <v>111.941663293281</v>
-      </c>
-      <c r="G13" s="8">
+        <v>-7.4375075254806688E-4</v>
+      </c>
+      <c r="G13" s="6">
         <v>2060</v>
       </c>
     </row>
